--- a/data/input/absenteeism_data_42.xlsx
+++ b/data/input/absenteeism_data_42.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9827</v>
+        <v>41494</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clarice Fogaça</t>
+          <t>Eduardo Farias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>10618.25</v>
+        <v>3492.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12197</v>
+        <v>32573</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thales Costa</t>
+          <t>Vitória Fernandes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>3575.52</v>
+        <v>5525.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>54385</v>
+        <v>44804</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Brenda Cavalcanti</t>
+          <t>Murilo Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>8914.52</v>
+        <v>11163.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89552</v>
+        <v>71171</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lucca das Neves</t>
+          <t>Natália Gomes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>5757.05</v>
+        <v>10963.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30765</v>
+        <v>44212</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Carvalho</t>
+          <t>Júlia Lima</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>10988.17</v>
+        <v>4739.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39816</v>
+        <v>64471</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Giovanna Rodrigues</t>
+          <t>Larissa Campos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>7534.63</v>
+        <v>11761.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94607</v>
+        <v>78114</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Beatriz da Cunha</t>
+          <t>Lorenzo Melo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>5688.31</v>
+        <v>8097.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35604</v>
+        <v>91216</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Luigi Pires</t>
+          <t>Rafael Porto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>4445.58</v>
+        <v>2881.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18978</v>
+        <v>32234</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brenda Castro</t>
+          <t>André Fogaça</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>7910.08</v>
+        <v>10518.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>92453</v>
+        <v>69756</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Luiza Viana</t>
+          <t>Nina Porto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>12392.95</v>
+        <v>7160.86</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_42.xlsx
+++ b/data/input/absenteeism_data_42.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41494</v>
+        <v>31737</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eduardo Farias</t>
+          <t>Pedro Costela</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>3492.24</v>
+        <v>10474.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32573</v>
+        <v>60502</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitória Fernandes</t>
+          <t>Ana Clara Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>5525.73</v>
+        <v>5792.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>44804</v>
+        <v>16611</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Murilo Gonçalves</t>
+          <t>Sofia Teixeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>11163.59</v>
+        <v>9219.870000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>71171</v>
+        <v>68983</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Natália Gomes</t>
+          <t>Natália Moura</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>10963.17</v>
+        <v>7496.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>44212</v>
+        <v>85997</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Júlia Lima</t>
+          <t>Sra. Sabrina Castro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,51 +610,51 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45099</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>4739.78</v>
+        <v>3002.56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64471</v>
+        <v>94002</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Larissa Campos</t>
+          <t>Marina Lima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>11761.33</v>
+        <v>12342.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>78114</v>
+        <v>55774</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lorenzo Melo</t>
+          <t>Vitória Moreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,60 +664,60 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>8097.25</v>
+        <v>9556.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91216</v>
+        <v>53011</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rafael Porto</t>
+          <t>Enzo Ribeiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>2881.65</v>
+        <v>3692.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32234</v>
+        <v>27172</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>André Fogaça</t>
+          <t>Dr. Pedro Henrique Pereira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45094</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>10518.88</v>
+        <v>3850.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69756</v>
+        <v>59814</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nina Porto</t>
+          <t>Sr. Eduardo Barbosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>7160.86</v>
+        <v>8541.610000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_42.xlsx
+++ b/data/input/absenteeism_data_42.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31737</v>
+        <v>56202</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pedro Costela</t>
+          <t>Luiz Felipe da Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>10474.67</v>
+        <v>10258.11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60502</v>
+        <v>82865</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Clara Rocha</t>
+          <t>Sra. Olivia Rodrigues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>5792.85</v>
+        <v>9317.360000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16611</v>
+        <v>68647</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sofia Teixeira</t>
+          <t>Yasmin Martins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>9219.870000000001</v>
+        <v>7514.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68983</v>
+        <v>61550</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Natália Moura</t>
+          <t>Kaique Mendes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>7496.83</v>
+        <v>9155.309999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85997</v>
+        <v>76163</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sra. Sabrina Castro</t>
+          <t>Lorenzo Santos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,56 +610,56 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>3002.56</v>
+        <v>9264.799999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94002</v>
+        <v>68270</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marina Lima</t>
+          <t>Esther Barros</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>12342.06</v>
+        <v>12246.81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>55774</v>
+        <v>68042</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vitória Moreira</t>
+          <t>Danilo Santos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>9556.08</v>
+        <v>6825.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>53011</v>
+        <v>3069</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enzo Ribeiro</t>
+          <t>Benjamin da Conceição</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>3692.04</v>
+        <v>4718.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27172</v>
+        <v>89050</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Pedro Henrique Pereira</t>
+          <t>Kamilly Santos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>3850.01</v>
+        <v>4148.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>59814</v>
+        <v>66621</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Eduardo Barbosa</t>
+          <t>Maria Julia da Luz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>8541.610000000001</v>
+        <v>8077.45</v>
       </c>
     </row>
   </sheetData>
